--- a/biology/Zoologie/Conure_à_gorge_rouge/Conure_à_gorge_rouge.xlsx
+++ b/biology/Zoologie/Conure_à_gorge_rouge/Conure_à_gorge_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_gorge_rouge</t>
+          <t>Conure_à_gorge_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psittacara rubritorquis
 La Conure à gorge rouge (Psittacara rubritorquis, anciennement Aratinga rubritorquis) est une espèce d'oiseaux appartenant à la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_gorge_rouge</t>
+          <t>Conure_à_gorge_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur le Guatemala, le Salvador, le Honduras et le Nicaragua.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_gorge_rouge</t>
+          <t>Conure_à_gorge_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau présente un plumage vert avec une marque rouge, striée de jaune, sur la gorge et la poitrine.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_gorge_rouge</t>
+          <t>Conure_à_gorge_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Suivant une étude phylogénique de Remsen et al. (2013), le genre Aratinga est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013), et la Conure à gorge rouge est déplacée vers le genre Psittacara.
-Synonymes
-Conurus rubritorquis (Protonyme)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant une étude phylogénique de Remsen et al. (2013), le genre Aratinga est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013), et la Conure à gorge rouge est déplacée vers le genre Psittacara.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conure_à_gorge_rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conure_%C3%A0_gorge_rouge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conurus rubritorquis (Protonyme)
 Aratinga holochlora rubritorquis
 Aratinga holochlora rubritorques
 Aratinga rubritorques</t>
